--- a/research/compiled_data/Livro1.xlsx
+++ b/research/compiled_data/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Silva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDFACB9-ACC5-4DE6-8DEE-5A2DD4314A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE0782-5435-4656-B0A2-10E80623F78F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="233" xr2:uid="{A8E8026A-0827-4328-8DB2-6CB64CB9D15B}"/>
   </bookViews>
@@ -5088,6 +5088,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$Q$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Folha1!$Q$50:$AE$50</c:f>
@@ -5164,6 +5218,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$Q$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Folha1!$Q$51:$AE$51</c:f>
@@ -5240,6 +5348,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$Q$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Folha1!$Q$52:$AE$52</c:f>
@@ -5316,6 +5478,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$Q$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Folha1!$Q$53:$AE$53</c:f>
@@ -17465,8 +17681,8 @@
       <xdr:row>112</xdr:row>
       <xdr:rowOff>142310</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CaixaDeTexto 1">
@@ -17608,7 +17824,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CaixaDeTexto 1">
@@ -17726,8 +17942,8 @@
       <cdr:x>0.23751</cdr:x>
       <cdr:y>0.74057</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -17805,7 +18021,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -18107,10 +18323,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -18410,8 +18622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8244EF-F26E-4B6C-9356-A1D409A957BC}">
   <dimension ref="A1:AS113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY105" sqref="AY105"/>
+    <sheetView tabSelected="1" topLeftCell="L91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z70" sqref="Z70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18567,7 +18779,7 @@
         <v>0.44</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="T4:W7" si="0">L13+U13</f>
+        <f t="shared" ref="T4:U7" si="0">L13+U13</f>
         <v>2.27</v>
       </c>
       <c r="V4">
@@ -21753,7 +21965,7 @@
         <v>20.5</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="15"/>
+        <f>ROUND((Z23+Z50),1)</f>
         <v>139.1</v>
       </c>
       <c r="AA70">

--- a/research/compiled_data/Livro1.xlsx
+++ b/research/compiled_data/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Silva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE0782-5435-4656-B0A2-10E80623F78F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA5FE8D-A71D-4902-87A9-5E66D52E1B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="233" xr2:uid="{A8E8026A-0827-4328-8DB2-6CB64CB9D15B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
   <si>
     <t>jpeg</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Melhor Geração</t>
+  </si>
+  <si>
+    <t>cmp10</t>
   </si>
 </sst>
 </file>
@@ -3390,6 +3393,759 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Velocidade</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> Média de compressão</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t>(MB/S)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Jpeg2000 Parte 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Jpeg</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Bzip2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Png</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Cmp ger. 10</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$P$127:$T$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9578-4DF0-B828-E59C1552460F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
+        <c:axId val="554323208"/>
+        <c:axId val="554320256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="554323208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554320256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554320256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554323208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Velocidade Média de descompressão</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(MB/S)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Jpeg2000 Parte 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Jpeg</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Bzip2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Png</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Cmp ger. 10</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$P$135:$T$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0C0-4766-B440-497601A2F02E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
+        <c:axId val="554326816"/>
+        <c:axId val="554321240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="554326816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554321240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="554321240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="554326816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -10156,6 +10912,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12535,6 +13371,1044 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="217">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="217">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -17928,6 +19802,78 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1769B30-170E-4C01-97F9-B5AB4D72996F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF54970B-912B-446C-B64A-D4BF8257992B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18620,10 +20566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8244EF-F26E-4B6C-9356-A1D409A957BC}">
-  <dimension ref="A1:AS113"/>
+  <dimension ref="A1:AS138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z70" sqref="Z70"/>
+    <sheetView tabSelected="1" topLeftCell="O103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH143" sqref="AH143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19517,7 +21463,7 @@
         <v>11.18</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="6"/>
+        <f>ROUND(J23,2)</f>
         <v>19.649999999999999</v>
       </c>
       <c r="AB23">
@@ -20134,7 +22080,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="7"/>
+        <f>ROUND(K34/1024/1024,2)</f>
         <v>4.59</v>
       </c>
       <c r="AB34">
@@ -22499,8 +24445,288 @@
     <row r="112" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F113" s="1"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="B127">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C127">
+        <v>0.25</v>
+      </c>
+      <c r="D127">
+        <v>1.38</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="H127">
+        <f>ROUND((A127+A128+A129+A130)/4,1)</f>
+        <v>22.2</v>
+      </c>
+      <c r="I127">
+        <f>ROUND((B127+B128+B129+B130)/4,1)</f>
+        <v>6</v>
+      </c>
+      <c r="J127">
+        <f t="shared" ref="I127:M127" si="18">ROUND((C127+C128+C129+C130)/4,1)</f>
+        <v>0.3</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="18"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="18"/>
+        <v>17.8</v>
+      </c>
+      <c r="P127">
+        <f>ROUND((22.2/I127),1)</f>
+        <v>3.7</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" ref="Q127:V127" si="19">ROUND((22.2/J127),1)</f>
+        <v>74</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="19"/>
+        <v>20.2</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>10.4</v>
+      </c>
+      <c r="B128">
+        <v>3.54</v>
+      </c>
+      <c r="C128">
+        <v>0.15</v>
+      </c>
+      <c r="D128">
+        <v>0.97</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>45.7</v>
+      </c>
+      <c r="B129">
+        <v>9.92</v>
+      </c>
+      <c r="C129">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D129">
+        <v>0.89</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>15.9</v>
+      </c>
+      <c r="B130">
+        <v>5.42</v>
+      </c>
+      <c r="C130">
+        <v>0.25</v>
+      </c>
+      <c r="D130">
+        <v>1.21</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1">
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="B135">
+        <v>4.03</v>
+      </c>
+      <c r="C135">
+        <v>0.19</v>
+      </c>
+      <c r="D135">
+        <v>0.89</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0.79</v>
+      </c>
+      <c r="H135">
+        <f>ROUND((A135+A136+A137+A138)/4,1)</f>
+        <v>22.2</v>
+      </c>
+      <c r="I135">
+        <f t="shared" ref="I135:M135" si="20">ROUND((B135+B136+B137+B138)/4,1)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="20"/>
+        <v>0.2</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="P135">
+        <f>ROUND(22.2/I135,1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" ref="Q135:T135" si="21">ROUND(22.2/J135,1)</f>
+        <v>111</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="21"/>
+        <v>27.8</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="21"/>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>10.4</v>
+      </c>
+      <c r="B136">
+        <v>2.83</v>
+      </c>
+      <c r="C136">
+        <v>0.12</v>
+      </c>
+      <c r="D136">
+        <v>0.61</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>45.7</v>
+      </c>
+      <c r="B137">
+        <v>8.59</v>
+      </c>
+      <c r="C137">
+        <v>0.42</v>
+      </c>
+      <c r="D137">
+        <v>0.68</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>15.9</v>
+      </c>
+      <c r="B138">
+        <v>4.33</v>
+      </c>
+      <c r="C138">
+        <v>0.19</v>
+      </c>
+      <c r="D138">
+        <v>0.86</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/research/compiled_data/Livro1.xlsx
+++ b/research/compiled_data/Livro1.xlsx
@@ -5,29 +5,20 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Silva\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sancho\Desktop\TI-TP2\research\compiled_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA5FE8D-A71D-4902-87A9-5E66D52E1B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E9EE12-1D42-4989-BF2E-3DBDA99E7A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="233" xr2:uid="{A8E8026A-0827-4328-8DB2-6CB64CB9D15B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="233" xr2:uid="{A8E8026A-0827-4328-8DB2-6CB64CB9D15B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -281,7 +272,7 @@
               <a:rPr lang="pt-PT" sz="1800" b="1" i="0" cap="all" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>(segundos)</a:t>
+              <a:t>(s)</a:t>
             </a:r>
             <a:endParaRPr lang="pt-PT">
               <a:effectLst/>
@@ -1082,7 +1073,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT" sz="1800"/>
-              <a:t>(segundos)</a:t>
+              <a:t>(s)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1880,7 +1871,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT" sz="1800"/>
-              <a:t>(Segundos)</a:t>
+              <a:t>(S)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2669,7 +2660,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT" sz="2000"/>
-              <a:t>Taxa de Compressão</a:t>
+              <a:t>Taxa de Compressão (S)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5020,7 +5011,7 @@
               <a:rPr lang="pt-PT" sz="1800" b="1" i="0" cap="all" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>TAxa de compressão</a:t>
+              <a:t>TAxa de compressão (%)</a:t>
             </a:r>
             <a:endParaRPr lang="pt-PT">
               <a:effectLst/>
@@ -5784,7 +5775,7 @@
               <a:rPr lang="pt-PT" sz="1800" b="1" i="0" cap="all" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>(segundos)</a:t>
+              <a:t>(s)</a:t>
             </a:r>
             <a:endParaRPr lang="pt-PT">
               <a:effectLst/>
@@ -7676,7 +7667,7 @@
               <a:rPr lang="pt-PT" sz="1800" b="1" i="0" cap="all" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>(segundos)</a:t>
+              <a:t>(S)</a:t>
             </a:r>
             <a:endParaRPr lang="pt-PT">
               <a:effectLst/>
@@ -10041,7 +10032,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT" sz="1800" baseline="0"/>
-              <a:t>(Segundos)</a:t>
+              <a:t>(S)</a:t>
             </a:r>
             <a:endParaRPr lang="pt-PT" sz="1800"/>
           </a:p>
@@ -19336,8 +19327,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19371,9 +19362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>117021</xdr:rowOff>
+      <xdr:colOff>293077</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19407,9 +19398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19436,16 +19427,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>130628</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>534866</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>119741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>87084</xdr:rowOff>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19473,15 +19464,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>168521</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:rowOff>123929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>578828</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19509,15 +19500,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>261852</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>172539</xdr:rowOff>
+      <xdr:colOff>217890</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>121250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>566652</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>150272</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20568,18 +20559,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8244EF-F26E-4B6C-9356-A1D409A957BC}">
   <dimension ref="A1:AS138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH143" sqref="AH143"/>
+    <sheetView tabSelected="1" topLeftCell="AC74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -20611,7 +20602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16.899999999999999</v>
       </c>
@@ -20673,7 +20664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10.4</v>
       </c>
@@ -20738,7 +20729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>45.7</v>
       </c>
@@ -20803,7 +20794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15.9</v>
       </c>
@@ -20880,7 +20871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="K7">
         <v>7.45</v>
       </c>
@@ -20924,7 +20915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AO8" t="s">
         <v>37</v>
       </c>
@@ -20941,7 +20932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>19</v>
       </c>
@@ -20949,7 +20940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -21005,7 +20996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -21052,7 +21043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -21121,7 +21112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -21190,7 +21181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -21259,7 +21250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -21286,7 +21277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -21336,7 +21327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -21380,7 +21371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22.09</v>
       </c>
@@ -21482,7 +21473,7 @@
         <v>41.81</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16.010000000000002</v>
       </c>
@@ -21584,7 +21575,7 @@
         <v>34.17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20.29</v>
       </c>
@@ -21686,7 +21677,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21.77</v>
       </c>
@@ -21788,7 +21779,7 @@
         <v>43.27</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.46</v>
       </c>
@@ -21890,7 +21881,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -21940,7 +21931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -21990,7 +21981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7189899</v>
       </c>
@@ -22100,7 +22091,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4853897</v>
       </c>
@@ -22210,7 +22201,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2775240</v>
       </c>
@@ -22320,7 +22311,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8876074</v>
       </c>
@@ -22430,7 +22421,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>225908</v>
       </c>
@@ -22540,7 +22531,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -22590,7 +22581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -22634,7 +22625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>67.55</v>
       </c>
@@ -22736,7 +22727,7 @@
         <v>76.510000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>63.4</v>
       </c>
@@ -22838,7 +22829,7 @@
         <v>73.540000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>94.26</v>
       </c>
@@ -22940,7 +22931,7 @@
         <v>95.62</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>61.26</v>
       </c>
@@ -23042,7 +23033,7 @@
         <v>71.39</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>40.32</v>
       </c>
@@ -23144,7 +23135,7 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q48">
         <v>0</v>
       </c>
@@ -23191,12 +23182,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="15:31" x14ac:dyDescent="0.25">
       <c r="Q49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="15:31" x14ac:dyDescent="0.25">
       <c r="P50" t="s">
         <v>3</v>
       </c>
@@ -23246,7 +23237,7 @@
         <v>75.069999999999993</v>
       </c>
     </row>
-    <row r="51" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="15:31" x14ac:dyDescent="0.25">
       <c r="P51" t="s">
         <v>4</v>
       </c>
@@ -23296,7 +23287,7 @@
         <v>57.29</v>
       </c>
     </row>
-    <row r="52" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="15:31" x14ac:dyDescent="0.25">
       <c r="P52" t="s">
         <v>5</v>
       </c>
@@ -23346,7 +23337,7 @@
         <v>153.85</v>
       </c>
     </row>
-    <row r="53" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="15:31" x14ac:dyDescent="0.25">
       <c r="P53" t="s">
         <v>6</v>
       </c>
@@ -23396,7 +23387,7 @@
         <v>79.23</v>
       </c>
     </row>
-    <row r="54" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="15:31" x14ac:dyDescent="0.25">
       <c r="P54" t="s">
         <v>13</v>
       </c>
@@ -23446,7 +23437,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="57" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="15:31" x14ac:dyDescent="0.25">
       <c r="Q57">
         <v>0</v>
       </c>
@@ -23493,7 +23484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="15:31" x14ac:dyDescent="0.25">
       <c r="O58" t="s">
         <v>22</v>
       </c>
@@ -23558,7 +23549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="15:31" x14ac:dyDescent="0.25">
       <c r="O59" t="s">
         <v>23</v>
       </c>
@@ -23623,7 +23614,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="60" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="15:31" x14ac:dyDescent="0.25">
       <c r="O60" t="s">
         <v>27</v>
       </c>
@@ -23688,7 +23679,7 @@
         <v>127.4</v>
       </c>
     </row>
-    <row r="62" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="15:31" x14ac:dyDescent="0.25">
       <c r="O62" t="s">
         <v>24</v>
       </c>
@@ -23753,7 +23744,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="64" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="15:31" x14ac:dyDescent="0.25">
       <c r="O64" t="s">
         <v>25</v>
       </c>
@@ -23818,7 +23809,7 @@
         <v>70.7</v>
       </c>
     </row>
-    <row r="68" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="15:31" x14ac:dyDescent="0.25">
       <c r="Q68">
         <v>0</v>
       </c>
@@ -23865,12 +23856,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="15:31" x14ac:dyDescent="0.25">
       <c r="Q69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="15:31" x14ac:dyDescent="0.25">
       <c r="P70" t="s">
         <v>3</v>
       </c>
@@ -23935,7 +23926,7 @@
         <v>116.9</v>
       </c>
     </row>
-    <row r="71" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="15:31" x14ac:dyDescent="0.25">
       <c r="P71" t="s">
         <v>4</v>
       </c>
@@ -24000,7 +23991,7 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="72" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="15:31" x14ac:dyDescent="0.25">
       <c r="P72" t="s">
         <v>5</v>
       </c>
@@ -24065,7 +24056,7 @@
         <v>178.6</v>
       </c>
     </row>
-    <row r="73" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="15:31" x14ac:dyDescent="0.25">
       <c r="P73" t="s">
         <v>6</v>
       </c>
@@ -24130,7 +24121,7 @@
         <v>122.5</v>
       </c>
     </row>
-    <row r="74" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="15:31" x14ac:dyDescent="0.25">
       <c r="P74" t="s">
         <v>13</v>
       </c>
@@ -24195,7 +24186,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="76" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="15:31" x14ac:dyDescent="0.25">
       <c r="Q76">
         <v>0</v>
       </c>
@@ -24242,7 +24233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="15:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="15:31" x14ac:dyDescent="0.25">
       <c r="O77" t="s">
         <v>42</v>
       </c>
@@ -24307,12 +24298,12 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>1</v>
       </c>
@@ -24332,7 +24323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -24355,7 +24346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -24378,7 +24369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -24401,7 +24392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -24424,31 +24415,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="1"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F113" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>1</v>
       </c>
@@ -24465,7 +24456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>16.899999999999999</v>
       </c>
@@ -24493,7 +24484,7 @@
         <v>6</v>
       </c>
       <c r="J127">
-        <f t="shared" ref="I127:M127" si="18">ROUND((C127+C128+C129+C130)/4,1)</f>
+        <f t="shared" ref="J127:M127" si="18">ROUND((C127+C128+C129+C130)/4,1)</f>
         <v>0.3</v>
       </c>
       <c r="K127">
@@ -24513,7 +24504,7 @@
         <v>3.7</v>
       </c>
       <c r="Q127">
-        <f t="shared" ref="Q127:V127" si="19">ROUND((22.2/J127),1)</f>
+        <f t="shared" ref="Q127:T127" si="19">ROUND((22.2/J127),1)</f>
         <v>74</v>
       </c>
       <c r="R127">
@@ -24528,7 +24519,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>10.4</v>
       </c>
@@ -24548,7 +24539,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>45.7</v>
       </c>
@@ -24568,7 +24559,7 @@
         <v>15.62</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>15.9</v>
       </c>
@@ -24588,7 +24579,7 @@
         <v>21.22</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>1</v>
       </c>
@@ -24605,7 +24596,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>16.899999999999999</v>
       </c>
@@ -24668,7 +24659,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10.4</v>
       </c>
@@ -24688,7 +24679,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>45.7</v>
       </c>
@@ -24708,7 +24699,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>15.9</v>
       </c>

--- a/research/compiled_data/Livro1.xlsx
+++ b/research/compiled_data/Livro1.xlsx
@@ -5,27 +5,36 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sancho\Desktop\TI-TP2\research\compiled_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Silva\Desktop\TP2_git\TI-TP2\research\compiled_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E9EE12-1D42-4989-BF2E-3DBDA99E7A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5737169-85E7-40DD-A961-01A72788A979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="233" xr2:uid="{A8E8026A-0827-4328-8DB2-6CB64CB9D15B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="233" xr2:uid="{A8E8026A-0827-4328-8DB2-6CB64CB9D15B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
   <si>
     <t>jpeg</t>
   </si>
@@ -157,6 +166,15 @@
   </si>
   <si>
     <t>cmp10</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
   </si>
 </sst>
 </file>
@@ -333,62 +351,65 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>14</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$23:$AE$23</c:f>
+              <c:f>Folha1!$Q$23:$AF$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>45.14</c:v>
                 </c:pt>
@@ -433,6 +454,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>41.81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,62 +484,65 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>14</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$24:$AE$24</c:f>
+              <c:f>Folha1!$Q$24:$AF$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>29.65</c:v>
                 </c:pt>
@@ -560,6 +587,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>34.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,62 +617,65 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>14</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$25:$AE$25</c:f>
+              <c:f>Folha1!$Q$25:$AF$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>78.39</c:v>
                 </c:pt>
@@ -687,6 +720,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,62 +750,65 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>14</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$26:$AE$26</c:f>
+              <c:f>Folha1!$Q$26:$AF$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>53.53</c:v>
                 </c:pt>
@@ -814,6 +853,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,6 +863,136 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AA3C-4A87-9FEA-49F0B8955226}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Média</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$Q$58:$AE$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>51.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7329-4956-95BE-BD9A130AB136}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1650,6 +1822,117 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$S$17:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED65-4055-B057-6F84E68A523F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -2448,6 +2731,117 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$S$8:$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C29-459B-81BF-C0E1149FDACE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -2660,7 +3054,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT" sz="2000"/>
-              <a:t>Taxa de Compressão (S)</a:t>
+              <a:t>Taxa de Compressão </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="2000"/>
+              <a:t>(%)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2812,16 +3215,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>76.400000000000006</c:v>
+                  <c:v>76.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.4</c:v>
+                  <c:v>94.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.3</c:v>
+                  <c:v>73.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.900000000000006</c:v>
+                  <c:v>73.91</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>76.510000000000005</c:v>
@@ -2946,16 +3349,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>70.599999999999994</c:v>
+                  <c:v>70.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>96.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>67.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.5</c:v>
+                  <c:v>69.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>75.73</c:v>
@@ -3083,13 +3486,13 @@
                   <c:v>94.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.7</c:v>
+                  <c:v>97.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.2</c:v>
+                  <c:v>96.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.3</c:v>
+                  <c:v>95.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>96</c:v>
@@ -3214,16 +3617,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>71.8</c:v>
+                  <c:v>71.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.8</c:v>
+                  <c:v>93.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.3</c:v>
+                  <c:v>66.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.2</c:v>
+                  <c:v>67.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>72.17</c:v>
@@ -3234,6 +3637,109 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AAE0-4180-8841-31E9E1794CED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Média</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$B$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.099999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E018-4525-AF2A-3361420CBB59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4167,6 +4673,375 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Velocidade média</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>(MB/s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Jpeg2000 Parte 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Jpeg</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Bzip2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Png</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Cmp ger. 10</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$P$138:$T$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0181-4B57-BA40-9362DBC7AC00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="227"/>
+        <c:overlap val="-48"/>
+        <c:axId val="585244808"/>
+        <c:axId val="585253336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="585244808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585253336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="585253336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585244808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4279,62 +5154,65 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>14</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$34:$AE$34</c:f>
+              <c:f>Folha1!$Q$34:$AF$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>6.86</c:v>
                 </c:pt>
@@ -4379,6 +5257,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4406,62 +5287,65 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>14</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$35:$AE$35</c:f>
+              <c:f>Folha1!$Q$35:$AF$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>4.63</c:v>
                 </c:pt>
@@ -4506,6 +5390,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4533,62 +5420,65 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>14</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$36:$AE$36</c:f>
+              <c:f>Folha1!$Q$36:$AF$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2.65</c:v>
                 </c:pt>
@@ -4633,6 +5523,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4660,62 +5553,65 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>14</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$37:$AE$37</c:f>
+              <c:f>Folha1!$Q$37:$AF$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>8.4600000000000009</c:v>
                 </c:pt>
@@ -4760,6 +5656,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4767,6 +5666,136 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7EDE-4521-A408-FA7BCF26CB7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Média</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$Q$62:$AE$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD26-4D44-910B-417A3B9D4DFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5072,62 +6101,65 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>14</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$42:$AE$42</c:f>
+              <c:f>Folha1!$Q$42:$AF$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>59.48</c:v>
                 </c:pt>
@@ -5172,6 +6204,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>76.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.650000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5199,62 +6234,65 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>14</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$43:$AE$43</c:f>
+              <c:f>Folha1!$Q$43:$AF$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>55.9</c:v>
                 </c:pt>
@@ -5299,6 +6337,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>73.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.739999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5326,62 +6367,65 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="15"/>
-              <c:pt idx="0">
-                <c:v>0</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>14</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$44:$AE$44</c:f>
+              <c:f>Folha1!$Q$44:$AF$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>94.22</c:v>
                 </c:pt>
@@ -5426,6 +6470,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>95.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5460,12 +6507,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$45:$AE$45</c:f>
+              <c:f>Folha1!$Q$45:$AF$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>46.97</c:v>
                 </c:pt>
@@ -5510,6 +6611,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>71.39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5517,6 +6621,136 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F9FA-4FCC-9B67-3FB7DFC1C7D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Média</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$Q$64:$AE$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>64.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB46-440F-B0F2-3171A4407A48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5837,10 +7071,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Folha1!$Q$21:$AE$21</c:f>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5891,10 +7125,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$50:$AE$50</c:f>
+              <c:f>Folha1!$Q$50:$AF$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>69.28</c:v>
                 </c:pt>
@@ -5939,6 +7173,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>75.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5967,10 +7204,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Folha1!$Q$21:$AE$21</c:f>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6021,10 +7258,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$51:$AE$51</c:f>
+              <c:f>Folha1!$Q$51:$AF$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>44.36</c:v>
                 </c:pt>
@@ -6069,6 +7306,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>57.29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6097,10 +7337,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Folha1!$Q$21:$AE$21</c:f>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6151,10 +7391,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$52:$AE$52</c:f>
+              <c:f>Folha1!$Q$52:$AF$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>109.8</c:v>
                 </c:pt>
@@ -6199,6 +7439,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>153.85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6227,10 +7470,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Folha1!$Q$21:$AE$21</c:f>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6281,10 +7524,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$53:$AE$53</c:f>
+              <c:f>Folha1!$Q$53:$AF$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>74.95</c:v>
                 </c:pt>
@@ -6329,6 +7572,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>79.23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6336,6 +7582,136 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D80C-4757-9A83-37478EE4EBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Média</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$Q$59:$AE$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>127.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8772-482A-8B9C-7FEBBA97BE6B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6864,49 +8240,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>54.2</c:v>
+                  <c:v>64.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.400000000000006</c:v>
+                  <c:v>71.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.2</c:v>
+                  <c:v>73.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.400000000000006</c:v>
+                  <c:v>72.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.599999999999994</c:v>
+                  <c:v>76.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62</c:v>
+                  <c:v>74.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58</c:v>
+                  <c:v>74.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.1</c:v>
+                  <c:v>59.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.400000000000006</c:v>
+                  <c:v>76.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.7</c:v>
+                  <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.7</c:v>
+                  <c:v>76.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.099999999999994</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.8</c:v>
+                  <c:v>76.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71.8</c:v>
+                  <c:v>79.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70.7</c:v>
+                  <c:v>79.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6922,7 +8298,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Fórmula de melhor geração</c:v>
+            <c:v>Fator de Compressão CMP</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -6961,49 +8337,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>34.4</c:v>
+                  <c:v>39.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.5</c:v>
+                  <c:v>82.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.4</c:v>
+                  <c:v>56.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.599999999999994</c:v>
+                  <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.7</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.5</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.4</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.5</c:v>
+                  <c:v>44.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.9</c:v>
+                  <c:v>98.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.4</c:v>
+                  <c:v>37.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95</c:v>
+                  <c:v>99.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.099999999999994</c:v>
+                  <c:v>79.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60.9</c:v>
+                  <c:v>64.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.1</c:v>
+                  <c:v>46.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7233,49 +8609,49 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="15"/>
                       <c:pt idx="0">
-                        <c:v>4.5999999999999996</c:v>
+                        <c:v>5.7</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.4000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4.0999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>3.7</c:v>
                       </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3.4</c:v>
+                      <c:pt idx="12">
+                        <c:v>3.7</c:v>
                       </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3.5</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.1</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>3.4</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>3.4</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5.5</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3.2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
+                      <c:pt idx="13">
                         <c:v>3.3</c:v>
                       </c:pt>
-                      <c:pt idx="10">
-                        <c:v>3.1</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>2.7</c:v>
-                      </c:pt>
                       <c:pt idx="14">
-                        <c:v>2.7</c:v>
+                        <c:v>3.3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7729,10 +9105,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Folha1!$A$33:$O$33</c:f>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7783,10 +9159,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$70:$AE$70</c:f>
+              <c:f>Folha1!$Q$70:$AF$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>114.4</c:v>
                 </c:pt>
@@ -7831,6 +9207,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>116.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.239999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7859,10 +9238,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Folha1!$A$33:$O$33</c:f>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7913,10 +9292,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$71:$AE$71</c:f>
+              <c:f>Folha1!$Q$71:$AF$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>74</c:v>
                 </c:pt>
@@ -7961,6 +9340,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7989,10 +9371,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Folha1!$A$33:$O$33</c:f>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8043,10 +9425,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$72:$AE$72</c:f>
+              <c:f>Folha1!$Q$72:$AF$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>188.2</c:v>
                 </c:pt>
@@ -8091,6 +9473,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>178.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>148.13999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8119,10 +9504,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Folha1!$A$33:$O$33</c:f>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8173,10 +9558,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Folha1!$Q$73:$AE$73</c:f>
+              <c:f>Folha1!$Q$73:$AF$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>128.5</c:v>
                 </c:pt>
@@ -8221,6 +9606,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.989999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8228,6 +9616,136 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E670-47AB-A9E3-88B15B58768E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Média</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Folha1!$Q$32:$AF$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$Q$60:$AE$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>126.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DAD3-48C6-BBAA-F19108C383EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9022,6 +10540,117 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$B$93:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F409-4B23-A854-1507701CE4C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -9415,19 +11044,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.72</c:v>
+                  <c:v>5.7241999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.69</c:v>
+                  <c:v>2.7505999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2599999999999998</c:v>
+                  <c:v>2.2614000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.41</c:v>
+                  <c:v>3.4178000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7</c:v>
+                  <c:v>2.6993999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9538,19 +11167,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.42</c:v>
+                  <c:v>7.4204999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.82</c:v>
+                  <c:v>2.7652000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.38</c:v>
+                  <c:v>2.3807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.46</c:v>
+                  <c:v>3.4653999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.82</c:v>
+                  <c:v>2.8241999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9661,19 +11290,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.83</c:v>
+                  <c:v>1.8291999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59</c:v>
+                  <c:v>0.61909999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.5645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62</c:v>
+                  <c:v>0.61770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>0.59570000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9784,19 +11413,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.83</c:v>
+                  <c:v>5.8311999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.22</c:v>
+                  <c:v>3.1808000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.57</c:v>
+                  <c:v>2.5748000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.33</c:v>
+                  <c:v>4.3308999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.22</c:v>
+                  <c:v>3.2219000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9804,6 +11433,109 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7E91-4783-9F84-B63FF2195FAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Média</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$K$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.2012999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3353000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-104D-4F0B-89F5-82E7F0A594CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10563,6 +12295,117 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D4DE-45FB-838A-4AD126840FE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$A$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$J$17:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D816-4E03-949A-7C7D6C989509}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10983,6 +12826,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13895,6 +15778,525 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="217">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narVert">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="217">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18837,16 +21239,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>490920</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>165542</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>120719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>302661</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>16606</xdr:rowOff>
+      <xdr:rowOff>151077</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18875,16 +21277,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>367146</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>112568</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>546847</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>67744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>62346</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>146798</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>71716</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>101974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19211,14 +21613,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>149038</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>453838</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:to>
@@ -19320,13 +21722,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:colOff>435429</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:colOff>130629</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
@@ -19356,13 +21758,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>500495</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>142058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>293077</xdr:colOff>
+      <xdr:colOff>279222</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
@@ -19535,19 +21937,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>564776</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167127</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>117181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>259976</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>142310</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471927</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>20646</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CaixaDeTexto 1">
@@ -19561,8 +21963,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5441576" y="19955435"/>
-              <a:ext cx="914400" cy="267816"/>
+              <a:off x="4434327" y="19480946"/>
+              <a:ext cx="914400" cy="262053"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19689,7 +22091,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CaixaDeTexto 1">
@@ -19703,8 +22105,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5441576" y="19955435"/>
-              <a:ext cx="914400" cy="267816"/>
+              <a:off x="4434327" y="19480946"/>
+              <a:ext cx="914400" cy="262053"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19865,6 +22267,750 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>108859</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10167257" cy="569643"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460D798F-01F1-48B1-B3A3-FCB876C25A7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21172714" y="13247916"/>
+              <a:ext cx="10167257" cy="569643"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pt-PT" sz="1600" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐹𝑎𝑡𝑜𝑟</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑑𝑒</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐶𝑜𝑚𝑝𝑟𝑒𝑠𝑠</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>ã</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑜</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐶𝑀𝑃</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1600">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pt-PT" sz="1600" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑇𝑎𝑥𝑎</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐶𝑜𝑚𝑝𝑟𝑒𝑠𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>ã</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑜</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑚</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>é</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑖𝑎</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>+(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑀𝑎𝑖𝑜𝑟</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑇𝑒𝑚𝑝𝑜</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑇𝑜𝑡𝑎𝑙</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑀</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>é</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑑𝑖𝑜</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:sSub>
+                        <m:sSubPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑇𝑒𝑚𝑝𝑜</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑇𝑜𝑡𝑎𝑙</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑀</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>é</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑖𝑜</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                        </m:sub>
+                      </m:sSub>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="pt-PT" sz="1600" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>, i ∈ { 1,2,3,4,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400" i="1" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ... , 13,14 }</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-PT" sz="1400" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460D798F-01F1-48B1-B3A3-FCB876C25A7C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21172714" y="13247916"/>
+              <a:ext cx="10167257" cy="569643"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1600" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐹𝑎𝑡𝑜𝑟 𝑑𝑒 𝐶𝑜𝑚𝑝𝑟𝑒𝑠𝑠ã𝑜 𝐶𝑀𝑃〗_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1600">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1600" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑇𝑎𝑥𝑎 𝑑𝑒 𝐶𝑜𝑚𝑝𝑟𝑒𝑠𝑠ã𝑜 𝑚é𝑑𝑖𝑎 〗_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑖 )+(𝑀𝑎𝑖𝑜𝑟 𝑇𝑒𝑚𝑝𝑜 𝑇𝑜𝑡𝑎𝑙 𝑀é𝑑𝑖𝑜−〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑇𝑒𝑚𝑝𝑜 𝑇𝑜𝑡𝑎𝑙 𝑀é𝑑𝑖𝑜〗_(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑖 )))/2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400" i="1">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>, i ∈ { 1,2,3,4,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1400" i="1" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ... , 13,14 }</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-PT" sz="1400" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>94129</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>398929</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BCB2C2-B3D7-42A7-BBEB-DA1DF190E1B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19872,15 +23018,15 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.03751</cdr:x>
-      <cdr:y>0.6421</cdr:y>
+      <cdr:x>0.04227</cdr:x>
+      <cdr:y>0.58016</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.23751</cdr:x>
-      <cdr:y>0.74057</cdr:y>
+      <cdr:x>0.24227</cdr:x>
+      <cdr:y>0.67863</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -19894,8 +23040,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="171517" y="1746371"/>
-              <a:ext cx="914400" cy="267816"/>
+              <a:off x="193268" y="1631400"/>
+              <a:ext cx="914400" cy="276895"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -19958,7 +23104,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -19972,8 +23118,8 @@
           </cdr:nvSpPr>
           <cdr:spPr>
             <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:off x="171517" y="1746371"/>
-              <a:ext cx="914400" cy="267816"/>
+              <a:off x="193268" y="1631400"/>
+              <a:ext cx="914400" cy="276895"/>
             </a:xfrm>
             <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
               <a:avLst/>
@@ -20559,18 +23705,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8244EF-F26E-4B6C-9356-A1D409A957BC}">
   <dimension ref="A1:AS138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" topLeftCell="I46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q59" sqref="Q59:AE59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="K1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -20602,7 +23748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>16.899999999999999</v>
       </c>
@@ -20625,19 +23771,19 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>5.72</v>
+        <v>5.7241999999999997</v>
       </c>
       <c r="L3">
-        <v>2.69</v>
+        <v>2.7505999999999999</v>
       </c>
       <c r="M3">
-        <v>2.2599999999999998</v>
+        <v>2.2614000000000001</v>
       </c>
       <c r="N3">
-        <v>3.41</v>
+        <v>3.4178000000000002</v>
       </c>
       <c r="O3">
-        <v>2.7</v>
+        <v>2.6993999999999998</v>
       </c>
       <c r="P3" t="s">
         <v>3</v>
@@ -20664,7 +23810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10.4</v>
       </c>
@@ -20687,19 +23833,19 @@
         <v>4</v>
       </c>
       <c r="K4">
-        <v>7.42</v>
+        <v>7.4204999999999997</v>
       </c>
       <c r="L4">
-        <v>2.82</v>
+        <v>2.7652000000000001</v>
       </c>
       <c r="M4">
-        <v>2.38</v>
+        <v>2.3807</v>
       </c>
       <c r="N4">
-        <v>3.46</v>
+        <v>3.4653999999999998</v>
       </c>
       <c r="O4">
-        <v>2.82</v>
+        <v>2.8241999999999998</v>
       </c>
       <c r="P4" t="s">
         <v>4</v>
@@ -20729,7 +23875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>45.7</v>
       </c>
@@ -20752,19 +23898,19 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>1.83</v>
+        <v>1.8291999999999999</v>
       </c>
       <c r="L5">
-        <v>0.59</v>
+        <v>0.61909999999999998</v>
       </c>
       <c r="M5">
-        <v>0.56000000000000005</v>
+        <v>0.5645</v>
       </c>
       <c r="N5">
-        <v>0.62</v>
+        <v>0.61770000000000003</v>
       </c>
       <c r="O5">
-        <v>0.6</v>
+        <v>0.59570000000000001</v>
       </c>
       <c r="P5" t="s">
         <v>5</v>
@@ -20794,7 +23940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>15.9</v>
       </c>
@@ -20817,19 +23963,19 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>5.83</v>
+        <v>5.8311999999999999</v>
       </c>
       <c r="L6">
-        <v>3.22</v>
+        <v>3.1808000000000001</v>
       </c>
       <c r="M6">
-        <v>2.57</v>
+        <v>2.5748000000000002</v>
       </c>
       <c r="N6">
-        <v>4.33</v>
+        <v>4.3308999999999997</v>
       </c>
       <c r="O6">
-        <v>3.22</v>
+        <v>3.2219000000000002</v>
       </c>
       <c r="P6" t="s">
         <v>6</v>
@@ -20871,24 +24017,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="K7">
-        <v>7.45</v>
+        <f>ROUND((K3+K4+K5+K6)/4,4)</f>
+        <v>5.2012999999999998</v>
       </c>
       <c r="L7">
-        <v>5.07</v>
+        <f t="shared" ref="L7:O7" si="2">ROUND((L3+L4+L5+L6)/4,4)</f>
+        <v>2.3289</v>
       </c>
       <c r="M7">
-        <v>4.8499999999999996</v>
+        <f t="shared" si="2"/>
+        <v>1.9454</v>
       </c>
       <c r="N7">
-        <v>6.79</v>
+        <f t="shared" si="2"/>
+        <v>2.9580000000000002</v>
       </c>
       <c r="O7">
-        <v>5.07</v>
-      </c>
-      <c r="P7" t="s">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>2.3353000000000002</v>
       </c>
       <c r="R7" t="s">
         <v>6</v>
@@ -20915,7 +24063,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <f>ROUND((S4+S5+S6+S7)/4,2)</f>
+        <v>10.91</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:W8" si="3">ROUND((T4+T5+T6+T7)/4,2)</f>
+        <v>0.54</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="3"/>
+        <v>1.87</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>18.600000000000001</v>
+      </c>
       <c r="AO8" t="s">
         <v>37</v>
       </c>
@@ -20932,7 +24100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>19</v>
       </c>
@@ -20940,7 +24108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -20996,7 +24164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -21043,25 +24211,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14">
-        <f>ROUND(((A3-B3)/A3)*100,1)</f>
-        <v>76.400000000000006</v>
+        <f>ROUND(((A3-B3)/A3)*100,2)</f>
+        <v>76.45</v>
       </c>
       <c r="C14">
-        <f>ROUND(((A3-C3)/A3)*100,1)</f>
-        <v>94.4</v>
+        <f>ROUND(((A3-C3)/A3)*100,2)</f>
+        <v>94.43</v>
       </c>
       <c r="D14">
-        <f>ROUND(((A3-D3)/A3)*100,1)</f>
-        <v>73.3</v>
+        <f>ROUND(((A3-D3)/A3)*100,2)</f>
+        <v>73.25</v>
       </c>
       <c r="E14">
-        <f>ROUND(((A3-E3)/A3)*100,1)</f>
-        <v>73.900000000000006</v>
+        <f>ROUND(((A3-E3)/A3)*100,2)</f>
+        <v>73.91</v>
       </c>
       <c r="F14" s="1">
         <v>76.510000000000005</v>
@@ -21112,25 +24280,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B17" si="2">ROUND(((A4-B4)/A4)*100,1)</f>
-        <v>70.599999999999994</v>
+        <f t="shared" ref="B15" si="4">ROUND(((A4-B4)/A4)*100,2)</f>
+        <v>70.58</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C17" si="3">ROUND(((A4-C4)/A4)*100,1)</f>
+        <f t="shared" ref="C15:C17" si="5">ROUND(((A4-C4)/A4)*100,2)</f>
         <v>96.9</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D17" si="4">ROUND(((A4-D4)/A4)*100,1)</f>
-        <v>68</v>
+        <f t="shared" ref="D15:D17" si="6">ROUND(((A4-D4)/A4)*100,2)</f>
+        <v>67.98</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E17" si="5">ROUND(((A4-E4)/A4)*100,1)</f>
-        <v>69.5</v>
+        <f t="shared" ref="E15:E17" si="7">ROUND(((A4-E4)/A4)*100,2)</f>
+        <v>69.52</v>
       </c>
       <c r="F15" s="1">
         <v>75.73</v>
@@ -21181,25 +24349,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f>ROUND(((A5-B5)/A5)*100,2)</f>
         <v>94.2</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
-        <v>97.7</v>
+        <f t="shared" si="5"/>
+        <v>97.68</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
-        <v>96.2</v>
+        <f t="shared" si="6"/>
+        <v>96.24</v>
       </c>
       <c r="E16">
-        <f t="shared" si="5"/>
-        <v>95.3</v>
+        <f t="shared" si="7"/>
+        <v>95.25</v>
       </c>
       <c r="F16" s="1">
         <v>96</v>
@@ -21250,25 +24418,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17">
-        <f t="shared" si="2"/>
-        <v>71.8</v>
+        <f>ROUND(((A6-B6)/A6)*100,2)</f>
+        <v>71.819999999999993</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
-        <v>93.8</v>
+        <f t="shared" si="5"/>
+        <v>93.84</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
-        <v>66.3</v>
+        <f t="shared" si="6"/>
+        <v>66.290000000000006</v>
       </c>
       <c r="E17">
-        <f t="shared" si="5"/>
-        <v>67.2</v>
+        <f t="shared" si="7"/>
+        <v>67.23</v>
       </c>
       <c r="F17" s="1">
         <v>72.17</v>
@@ -21276,8 +24444,76 @@
       <c r="G17">
         <v>13</v>
       </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17">
+        <f>ROUND((J13+J14+J15+J16)/4,2)</f>
+        <v>5.97</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:N17" si="8">ROUND((K13+K14+K15+K16)/4,2)</f>
+        <v>0.31</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="8"/>
+        <v>11.51</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17">
+        <f>ROUND((S13+S14+S15+S16)/4,2)</f>
+        <v>4.95</v>
+      </c>
+      <c r="T17">
+        <f t="shared" ref="T17:W17" si="9">ROUND((T13+T14+T15+T16)/4,2)</f>
+        <v>0.23</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="9"/>
+        <v>0.76</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>ROUND((B14+B15+B16+B17)/4,2)</f>
+        <v>78.260000000000005</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:F18" si="10">ROUND((C14+C15+C16+C17)/4,2)</f>
+        <v>95.71</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="10"/>
+        <v>75.94</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="10"/>
+        <v>76.48</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="10"/>
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -21327,7 +24563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -21371,7 +24607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22.09</v>
       </c>
@@ -21418,39 +24654,39 @@
         <v>45.14</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:AD27" si="6">ROUND(A23,2)</f>
+        <f t="shared" ref="R23:AD27" si="11">ROUND(A23,2)</f>
         <v>22.09</v>
       </c>
       <c r="S23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>26.4</v>
       </c>
       <c r="T23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>24.34</v>
       </c>
       <c r="U23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>19.77</v>
       </c>
       <c r="V23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>31.51</v>
       </c>
       <c r="W23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>32.96</v>
       </c>
       <c r="X23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>27.41</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>19.7</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>11.18</v>
       </c>
       <c r="AA23">
@@ -21458,22 +24694,26 @@
         <v>19.649999999999999</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>44.06</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>43.97</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>23.57</v>
       </c>
       <c r="AE23">
         <v>41.81</v>
       </c>
+      <c r="AF23">
+        <f>ROUND((Q23+R23+S23+T23+U23+V23+W23+X23+Y23+Z23+AA23+AB23+AC23+AD23+AE23)/15,2)</f>
+        <v>28.9</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>16.010000000000002</v>
       </c>
@@ -21520,62 +24760,66 @@
         <v>29.65</v>
       </c>
       <c r="R24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>16.010000000000002</v>
       </c>
       <c r="S24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>10.54</v>
       </c>
       <c r="T24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.77</v>
       </c>
       <c r="U24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>15.07</v>
       </c>
       <c r="V24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>11.47</v>
       </c>
       <c r="W24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>10.3</v>
       </c>
       <c r="X24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18.41</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>15.52</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.75</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>14.86</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>35.630000000000003</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>36.49</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18.36</v>
       </c>
       <c r="AE24">
         <v>34.17</v>
       </c>
+      <c r="AF24">
+        <f t="shared" ref="AF24:AF73" si="12">ROUND((Q24+R24+S24+T24+U24+V24+W24+X24+Y24+Z24+AA24+AB24+AC24+AD24+AE24)/15,2)</f>
+        <v>18.93</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20.29</v>
       </c>
@@ -21622,62 +24866,66 @@
         <v>78.39</v>
       </c>
       <c r="R25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>20.29</v>
       </c>
       <c r="S25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>246.83</v>
       </c>
       <c r="T25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>150.08000000000001</v>
       </c>
       <c r="U25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>22.21</v>
       </c>
       <c r="V25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>263.63</v>
       </c>
       <c r="W25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>281.63</v>
       </c>
       <c r="X25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>29.66</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>16.96</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>23.26</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>15.62</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>25.44</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>21.45</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="AE25">
         <v>24.7</v>
       </c>
+      <c r="AF25">
+        <f t="shared" si="12"/>
+        <v>82.54</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21.77</v>
       </c>
@@ -21724,62 +24972,66 @@
         <v>53.53</v>
       </c>
       <c r="R26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>21.77</v>
       </c>
       <c r="S26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>16.7</v>
       </c>
       <c r="T26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18.440000000000001</v>
       </c>
       <c r="U26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>21.04</v>
       </c>
       <c r="V26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>17.940000000000001</v>
       </c>
       <c r="W26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>18.34</v>
       </c>
       <c r="X26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>27.96</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>22.51</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>11.5</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>21.22</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>46.07</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>54.68</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>25.06</v>
       </c>
       <c r="AE26">
         <v>43.27</v>
       </c>
+      <c r="AF26">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.46</v>
       </c>
@@ -21822,66 +25074,8 @@
       <c r="N27" t="s">
         <v>13</v>
       </c>
-      <c r="Q27">
-        <v>14.18</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="6"/>
-        <v>0.46</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="6"/>
-        <v>0.46</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="6"/>
-        <v>0.35</v>
-      </c>
-      <c r="U27">
-        <f t="shared" si="6"/>
-        <v>0.51</v>
-      </c>
-      <c r="V27">
-        <f t="shared" si="6"/>
-        <v>0.43</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="6"/>
-        <v>0.53</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="6"/>
-        <v>0.41</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="6"/>
-        <v>0.19</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="6"/>
-        <v>0.24</v>
-      </c>
-      <c r="AA27">
-        <f t="shared" si="6"/>
-        <v>0.15</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="6"/>
-        <v>0.72</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="6"/>
-        <v>0.64</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="6"/>
-        <v>0.16</v>
-      </c>
-      <c r="AE27">
-        <v>0.67</v>
-      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -21931,7 +25125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -21981,7 +25175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7189899</v>
       </c>
@@ -22031,43 +25225,43 @@
         <v>3</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:AE38" si="7">ROUND(A34/1024/1024,2)</f>
+        <f t="shared" ref="Q34:AE38" si="13">ROUND(A34/1024/1024,2)</f>
         <v>6.86</v>
       </c>
       <c r="R34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.49</v>
       </c>
       <c r="S34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.24</v>
       </c>
       <c r="T34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.37</v>
       </c>
       <c r="U34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="V34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.2</v>
       </c>
       <c r="W34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.2</v>
       </c>
       <c r="X34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>7.84</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.74</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.9800000000000004</v>
       </c>
       <c r="AA34">
@@ -22075,23 +25269,27 @@
         <v>4.59</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.45</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.98</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.98</v>
       </c>
+      <c r="AF34">
+        <f t="shared" si="12"/>
+        <v>5.14</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4853897</v>
       </c>
@@ -22141,67 +25339,71 @@
         <v>4</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.63</v>
       </c>
       <c r="R35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.84</v>
       </c>
       <c r="S35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.39</v>
       </c>
       <c r="T35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.55</v>
       </c>
       <c r="U35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.4</v>
       </c>
       <c r="V35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.33</v>
       </c>
       <c r="W35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.34</v>
       </c>
       <c r="X35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.09</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.89</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.22</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.87</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.89</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.97</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.59</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.78</v>
       </c>
+      <c r="AF35">
+        <f t="shared" si="12"/>
+        <v>3.39</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2775240</v>
       </c>
@@ -22251,67 +25453,71 @@
         <v>5</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.65</v>
       </c>
       <c r="R36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.63</v>
       </c>
       <c r="S36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="T36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.5099999999999998</v>
       </c>
       <c r="U36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.2799999999999998</v>
       </c>
       <c r="V36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.48</v>
       </c>
       <c r="W36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.54</v>
       </c>
       <c r="X36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.78</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.39</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.4</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.44</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.88</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.83</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.1800000000000002</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.0099999999999998</v>
       </c>
+      <c r="AF36">
+        <f t="shared" si="12"/>
+        <v>2.56</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8876074</v>
       </c>
@@ -22361,67 +25567,71 @@
         <v>6</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.4600000000000009</v>
       </c>
       <c r="R37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.18</v>
       </c>
       <c r="S37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.75</v>
       </c>
       <c r="T37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6.04</v>
       </c>
       <c r="U37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.0599999999999996</v>
       </c>
       <c r="V37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.69</v>
       </c>
       <c r="W37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.68</v>
       </c>
       <c r="X37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.56</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.57</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.84</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.55</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.47</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5.29</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.4400000000000004</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.57</v>
       </c>
+      <c r="AF37">
+        <f t="shared" si="12"/>
+        <v>5.88</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>225908</v>
       </c>
@@ -22467,71 +25677,8 @@
       <c r="O38">
         <v>167812</v>
       </c>
-      <c r="P38" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="7"/>
-        <v>0.22</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="7"/>
-        <v>0.15</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="7"/>
-        <v>0.19</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="7"/>
-        <v>0.16</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="7"/>
-        <v>0.15</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="7"/>
-        <v>0.22</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="7"/>
-        <v>0.27</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="7"/>
-        <v>0.17</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" si="7"/>
-        <v>0.16</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="7"/>
-        <v>0.16</v>
-      </c>
-      <c r="AA38">
-        <f t="shared" si="7"/>
-        <v>0.17</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" si="7"/>
-        <v>0.17</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" si="7"/>
-        <v>0.16</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="7"/>
-        <v>0.15</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" si="7"/>
-        <v>0.16</v>
-      </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -22581,7 +25728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -22625,7 +25772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>67.55</v>
       </c>
@@ -22676,58 +25823,62 @@
         <v>67.55</v>
       </c>
       <c r="S42">
-        <f t="shared" ref="S42:AD46" si="8">ROUND(B42,2)</f>
+        <f t="shared" ref="S42:AD46" si="14">ROUND(B42,2)</f>
         <v>69.05</v>
       </c>
       <c r="T42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>68.290000000000006</v>
       </c>
       <c r="U42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>73.42</v>
       </c>
       <c r="V42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>69.260000000000005</v>
       </c>
       <c r="W42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>69.25</v>
       </c>
       <c r="X42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>53.67</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>72.02</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>70.58</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>72.87</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>73.72</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>72.569999999999993</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>76.5</v>
       </c>
       <c r="AE42">
         <v>76.510000000000005</v>
       </c>
+      <c r="AF42">
+        <f t="shared" si="12"/>
+        <v>69.650000000000006</v>
+      </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>63.4</v>
       </c>
@@ -22774,62 +25925,66 @@
         <v>55.9</v>
       </c>
       <c r="R43">
-        <f t="shared" ref="R43:R46" si="9">ROUND(A43,2)</f>
+        <f t="shared" ref="R43:R46" si="15">ROUND(A43,2)</f>
         <v>63.4</v>
       </c>
       <c r="S43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>67.739999999999995</v>
       </c>
       <c r="T43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>66.13</v>
       </c>
       <c r="U43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>67.59</v>
       </c>
       <c r="V43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>68.27</v>
       </c>
       <c r="W43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>68.14</v>
       </c>
       <c r="X43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>51.53</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>72.48</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>69.290000000000006</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>72.650000000000006</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>72.47</v>
       </c>
       <c r="AC43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>71.67</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>75.33</v>
       </c>
       <c r="AE43">
         <v>73.540000000000006</v>
       </c>
+      <c r="AF43">
+        <f t="shared" si="12"/>
+        <v>67.739999999999995</v>
+      </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>94.26</v>
       </c>
@@ -22876,62 +26031,66 @@
         <v>94.22</v>
       </c>
       <c r="R44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>94.26</v>
       </c>
       <c r="S44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>94.61</v>
       </c>
       <c r="T44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>94.52</v>
       </c>
       <c r="U44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>95.01</v>
       </c>
       <c r="V44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>94.57</v>
       </c>
       <c r="W44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>94.46</v>
       </c>
       <c r="X44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>87.38</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>94.79</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>94.75</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>94.67</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>95.9</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>95.24</v>
       </c>
       <c r="AE44">
         <v>95.62</v>
       </c>
+      <c r="AF44">
+        <f t="shared" si="12"/>
+        <v>94.4</v>
+      </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>61.26</v>
       </c>
@@ -22978,62 +26137,66 @@
         <v>46.97</v>
       </c>
       <c r="R45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>61.26</v>
       </c>
       <c r="S45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>63.95</v>
       </c>
       <c r="T45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>62.17</v>
       </c>
       <c r="U45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>68.3</v>
       </c>
       <c r="V45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>64.34</v>
       </c>
       <c r="W45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>64.42</v>
       </c>
       <c r="X45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>46.41</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>65.09</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>63.4</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>65.209999999999994</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>65.709999999999994</v>
       </c>
       <c r="AC45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>66.83</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>72.17</v>
       </c>
       <c r="AE45">
         <v>71.39</v>
       </c>
+      <c r="AF45">
+        <f t="shared" si="12"/>
+        <v>63.17</v>
+      </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>40.32</v>
       </c>
@@ -23073,69 +26236,8 @@
       <c r="M46">
         <v>39.630000000000003</v>
       </c>
-      <c r="O46" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q46">
-        <v>14.18</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="9"/>
-        <v>40.32</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="8"/>
-        <v>25.8</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="8"/>
-        <v>35.89</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="8"/>
-        <v>38.700000000000003</v>
-      </c>
-      <c r="V46">
-        <f t="shared" si="8"/>
-        <v>13.8</v>
-      </c>
-      <c r="W46">
-        <f t="shared" si="8"/>
-        <v>-6.18</v>
-      </c>
-      <c r="X46">
-        <f t="shared" si="8"/>
-        <v>31.46</v>
-      </c>
-      <c r="Y46">
-        <f t="shared" si="8"/>
-        <v>37.83</v>
-      </c>
-      <c r="Z46">
-        <f t="shared" si="8"/>
-        <v>35.39</v>
-      </c>
-      <c r="AA46">
-        <f t="shared" si="8"/>
-        <v>32.979999999999997</v>
-      </c>
-      <c r="AB46">
-        <f t="shared" si="8"/>
-        <v>32.89</v>
-      </c>
-      <c r="AC46">
-        <f t="shared" si="8"/>
-        <v>36.94</v>
-      </c>
-      <c r="AD46">
-        <f t="shared" si="8"/>
-        <v>39.630000000000003</v>
-      </c>
-      <c r="AE46">
-        <v>36.25</v>
-      </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="Q48">
         <v>0</v>
       </c>
@@ -23182,12 +26284,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="15:32" x14ac:dyDescent="0.3">
       <c r="Q49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="15:32" x14ac:dyDescent="0.3">
       <c r="P50" t="s">
         <v>3</v>
       </c>
@@ -23236,8 +26338,12 @@
       <c r="AE50">
         <v>75.069999999999993</v>
       </c>
+      <c r="AF50">
+        <f t="shared" si="12"/>
+        <v>44.34</v>
+      </c>
     </row>
-    <row r="51" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="15:32" x14ac:dyDescent="0.3">
       <c r="P51" t="s">
         <v>4</v>
       </c>
@@ -23286,8 +26392,12 @@
       <c r="AE51">
         <v>57.29</v>
       </c>
+      <c r="AF51">
+        <f t="shared" si="12"/>
+        <v>31.78</v>
+      </c>
     </row>
-    <row r="52" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="15:32" x14ac:dyDescent="0.3">
       <c r="P52" t="s">
         <v>5</v>
       </c>
@@ -23336,8 +26446,12 @@
       <c r="AE52">
         <v>153.85</v>
       </c>
+      <c r="AF52">
+        <f t="shared" si="12"/>
+        <v>65.58</v>
+      </c>
     </row>
-    <row r="53" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="15:32" x14ac:dyDescent="0.3">
       <c r="P53" t="s">
         <v>6</v>
       </c>
@@ -23386,58 +26500,12 @@
       <c r="AE53">
         <v>79.23</v>
       </c>
+      <c r="AF53">
+        <f t="shared" si="12"/>
+        <v>46.99</v>
+      </c>
     </row>
-    <row r="54" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="P54" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q54">
-        <v>1.59</v>
-      </c>
-      <c r="R54">
-        <v>0.73</v>
-      </c>
-      <c r="S54">
-        <v>0.82</v>
-      </c>
-      <c r="T54">
-        <v>0.75</v>
-      </c>
-      <c r="U54">
-        <v>2.48</v>
-      </c>
-      <c r="V54">
-        <v>0.81</v>
-      </c>
-      <c r="W54">
-        <v>0.73</v>
-      </c>
-      <c r="X54">
-        <v>1.69</v>
-      </c>
-      <c r="Y54">
-        <v>0.02</v>
-      </c>
-      <c r="Z54">
-        <v>3.66</v>
-      </c>
-      <c r="AA54">
-        <v>0.02</v>
-      </c>
-      <c r="AB54">
-        <v>0.81</v>
-      </c>
-      <c r="AC54">
-        <v>0.51</v>
-      </c>
-      <c r="AD54">
-        <v>1.23</v>
-      </c>
-      <c r="AE54">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="57" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="15:32" x14ac:dyDescent="0.3">
       <c r="Q57">
         <v>0</v>
       </c>
@@ -23484,7 +26552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O58" t="s">
         <v>22</v>
       </c>
@@ -23493,63 +26561,67 @@
         <v>51.7</v>
       </c>
       <c r="R58">
-        <f t="shared" ref="R58:AE58" si="10">ROUND((R23+R24+R25+R26)/4,1)</f>
+        <f t="shared" ref="R58:AE58" si="16">ROUND((R23+R24+R25+R26)/4,1)</f>
         <v>20</v>
       </c>
       <c r="S58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>75.099999999999994</v>
       </c>
       <c r="T58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>50.7</v>
       </c>
       <c r="U58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19.5</v>
       </c>
       <c r="V58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>81.099999999999994</v>
       </c>
       <c r="W58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>85.8</v>
       </c>
       <c r="X58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>25.9</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18.7</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>13.4</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17.8</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>37.799999999999997</v>
       </c>
       <c r="AC58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>39.1</v>
       </c>
       <c r="AD58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21.2</v>
       </c>
       <c r="AE58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
+      <c r="AF58">
+        <f t="shared" si="12"/>
+        <v>39.590000000000003</v>
+      </c>
     </row>
-    <row r="59" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O59" t="s">
         <v>23</v>
       </c>
@@ -23558,63 +26630,67 @@
         <v>74.599999999999994</v>
       </c>
       <c r="R59">
-        <f t="shared" ref="R59:AE59" si="11">ROUND((R50+R51+R52+R53)/4,1)</f>
+        <f t="shared" ref="R59:AE59" si="17">ROUND((R50+R51+R52+R53)/4,1)</f>
         <v>27.1</v>
       </c>
       <c r="S59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="T59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>24.3</v>
       </c>
       <c r="U59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>90.4</v>
       </c>
       <c r="V59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>22.8</v>
       </c>
       <c r="W59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>22.2</v>
       </c>
       <c r="X59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>86.1</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>127.3</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>20.9</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>22.4</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>69.599999999999994</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>91.4</v>
       </c>
+      <c r="AF59">
+        <f t="shared" si="12"/>
+        <v>47.18</v>
+      </c>
     </row>
-    <row r="60" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O60" t="s">
         <v>27</v>
       </c>
@@ -23623,193 +26699,205 @@
         <v>126.3</v>
       </c>
       <c r="R60">
-        <f t="shared" ref="R60:AE60" si="12">ROUND((R70+R71+R72+R73)/4,1)</f>
+        <f>ROUND((R70+R71+R72+R73)/4,1)</f>
         <v>47.2</v>
       </c>
       <c r="S60">
+        <f t="shared" ref="R60:AE60" si="18">ROUND((S70+S71+S72+S73)/4,1)</f>
+        <v>102.2</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="18"/>
+        <v>75</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="18"/>
+        <v>110</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="18"/>
+        <v>103.9</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="18"/>
+        <v>108</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="18"/>
+        <v>112</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="18"/>
+        <v>19.5</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="18"/>
+        <v>140.80000000000001</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" si="18"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="18"/>
+        <v>58.7</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="18"/>
+        <v>61.6</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="18"/>
+        <v>90.8</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="18"/>
+        <v>127.4</v>
+      </c>
+      <c r="AF60">
         <f t="shared" si="12"/>
-        <v>102.2</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="12"/>
-        <v>75</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="12"/>
-        <v>110</v>
-      </c>
-      <c r="V60">
-        <f t="shared" si="12"/>
-        <v>103.9</v>
-      </c>
-      <c r="W60">
-        <f t="shared" si="12"/>
-        <v>108</v>
-      </c>
-      <c r="X60">
-        <f t="shared" si="12"/>
-        <v>112</v>
-      </c>
-      <c r="Y60">
-        <f t="shared" si="12"/>
-        <v>19.5</v>
-      </c>
-      <c r="Z60">
-        <f t="shared" si="12"/>
-        <v>140.80000000000001</v>
-      </c>
-      <c r="AA60">
-        <f t="shared" si="12"/>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="AB60">
-        <f t="shared" si="12"/>
-        <v>58.7</v>
-      </c>
-      <c r="AC60">
-        <f t="shared" si="12"/>
-        <v>61.6</v>
-      </c>
-      <c r="AD60">
-        <f t="shared" si="12"/>
-        <v>90.8</v>
-      </c>
-      <c r="AE60">
-        <f t="shared" si="12"/>
-        <v>127.4</v>
+        <v>86.8</v>
       </c>
     </row>
-    <row r="62" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O62" t="s">
         <v>24</v>
       </c>
       <c r="Q62">
-        <f>ROUND((Q34+Q35+Q36+Q37+Q38)/5,1)</f>
-        <v>4.5999999999999996</v>
+        <f>ROUND((Q34+Q35+Q36+Q37)/4,1)</f>
+        <v>5.7</v>
       </c>
       <c r="R62">
-        <f t="shared" ref="R62:AE62" si="13">ROUND((R34+R35+R36+R37+R38)/5,1)</f>
+        <f t="shared" ref="R62:AE62" si="19">ROUND((R34+R35+R36+R37)/4,1)</f>
+        <v>4.5</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="19"/>
+        <v>4.2</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="19"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="19"/>
+        <v>3.8</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="19"/>
+        <v>4.2</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="19"/>
+        <v>4.2</v>
+      </c>
+      <c r="X62">
+        <f>ROUND((X34+X35+X36+X37)/4,1)</f>
+        <v>6.8</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="19"/>
+        <v>3.9</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="19"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA62">
+        <f t="shared" si="19"/>
+        <v>3.9</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="19"/>
         <v>3.7</v>
       </c>
-      <c r="S62">
-        <f t="shared" si="13"/>
-        <v>3.4</v>
-      </c>
-      <c r="T62">
-        <f t="shared" si="13"/>
-        <v>3.5</v>
-      </c>
-      <c r="U62">
-        <f t="shared" si="13"/>
-        <v>3.1</v>
-      </c>
-      <c r="V62">
-        <f t="shared" si="13"/>
-        <v>3.4</v>
-      </c>
-      <c r="W62">
-        <f t="shared" si="13"/>
-        <v>3.4</v>
-      </c>
-      <c r="X62">
-        <f t="shared" si="13"/>
-        <v>5.5</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" si="13"/>
-        <v>3.2</v>
-      </c>
-      <c r="Z62">
-        <f t="shared" si="13"/>
+      <c r="AC62">
+        <f t="shared" si="19"/>
+        <v>3.7</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="19"/>
         <v>3.3</v>
       </c>
-      <c r="AA62">
-        <f t="shared" si="13"/>
-        <v>3.1</v>
-      </c>
-      <c r="AB62">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AC62">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AD62">
-        <f t="shared" si="13"/>
-        <v>2.7</v>
-      </c>
       <c r="AE62">
-        <f t="shared" si="13"/>
-        <v>2.7</v>
+        <f t="shared" si="19"/>
+        <v>3.3</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="12"/>
+        <v>4.25</v>
       </c>
     </row>
-    <row r="64" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O64" t="s">
         <v>25</v>
       </c>
       <c r="Q64">
-        <f>ROUND((Q42+Q43+Q44+Q45+Q46)/5,1)</f>
-        <v>54.2</v>
+        <f>ROUND((Q42+Q43+Q44+Q45)/4,1)</f>
+        <v>64.099999999999994</v>
       </c>
       <c r="R64">
-        <f t="shared" ref="R64:AE64" si="14">ROUND((R42+R43+R44+R45+R46)/5,1)</f>
-        <v>65.400000000000006</v>
+        <f t="shared" ref="R64:AE64" si="20">ROUND((R42+R43+R44+R45)/4,1)</f>
+        <v>71.599999999999994</v>
       </c>
       <c r="S64">
-        <f t="shared" si="14"/>
-        <v>64.2</v>
+        <f t="shared" si="20"/>
+        <v>73.8</v>
       </c>
       <c r="T64">
-        <f t="shared" si="14"/>
-        <v>65.400000000000006</v>
+        <f t="shared" si="20"/>
+        <v>72.8</v>
       </c>
       <c r="U64">
-        <f t="shared" si="14"/>
-        <v>68.599999999999994</v>
+        <f t="shared" si="20"/>
+        <v>76.099999999999994</v>
       </c>
       <c r="V64">
-        <f t="shared" si="14"/>
-        <v>62</v>
+        <f t="shared" si="20"/>
+        <v>74.099999999999994</v>
       </c>
       <c r="W64">
-        <f t="shared" si="14"/>
-        <v>58</v>
+        <f t="shared" si="20"/>
+        <v>74.099999999999994</v>
       </c>
       <c r="X64">
-        <f t="shared" si="14"/>
-        <v>54.1</v>
+        <f t="shared" si="20"/>
+        <v>59.7</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="14"/>
-        <v>68.400000000000006</v>
+        <f t="shared" si="20"/>
+        <v>76.099999999999994</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="14"/>
-        <v>66.7</v>
+        <f t="shared" si="20"/>
+        <v>74.5</v>
       </c>
       <c r="AA64">
-        <f t="shared" si="14"/>
-        <v>67.7</v>
+        <f t="shared" si="20"/>
+        <v>76.400000000000006</v>
       </c>
       <c r="AB64">
-        <f t="shared" si="14"/>
-        <v>68.099999999999994</v>
+        <f t="shared" si="20"/>
+        <v>77</v>
       </c>
       <c r="AC64">
-        <f t="shared" si="14"/>
-        <v>68.8</v>
+        <f t="shared" si="20"/>
+        <v>76.8</v>
       </c>
       <c r="AD64">
-        <f t="shared" si="14"/>
-        <v>71.8</v>
+        <f t="shared" si="20"/>
+        <v>79.8</v>
       </c>
       <c r="AE64">
-        <f t="shared" si="14"/>
-        <v>70.7</v>
+        <f t="shared" si="20"/>
+        <v>79.3</v>
+      </c>
+      <c r="AF64">
+        <f t="shared" si="12"/>
+        <v>73.75</v>
       </c>
     </row>
-    <row r="68" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="15:32" x14ac:dyDescent="0.3">
       <c r="Q68">
         <v>0</v>
       </c>
@@ -23856,12 +26944,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="15:32" x14ac:dyDescent="0.3">
       <c r="Q69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="15:32" x14ac:dyDescent="0.3">
       <c r="P70" t="s">
         <v>3</v>
       </c>
@@ -23870,35 +26958,35 @@
         <v>114.4</v>
       </c>
       <c r="R70">
-        <f t="shared" ref="R70:AE70" si="15">ROUND((R23+R50),1)</f>
+        <f t="shared" ref="R70:AE70" si="21">ROUND((R23+R50),1)</f>
         <v>53.3</v>
       </c>
       <c r="S70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>57.8</v>
       </c>
       <c r="T70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>55.3</v>
       </c>
       <c r="U70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>89.4</v>
       </c>
       <c r="V70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>58.4</v>
       </c>
       <c r="W70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>58.9</v>
       </c>
       <c r="X70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>111</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>20.5</v>
       </c>
       <c r="Z70">
@@ -23906,145 +26994,153 @@
         <v>139.1</v>
       </c>
       <c r="AA70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>20.399999999999999</v>
       </c>
       <c r="AB70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>66.7</v>
       </c>
       <c r="AC70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>68.2</v>
       </c>
       <c r="AD70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>68.3</v>
       </c>
       <c r="AE70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>116.9</v>
       </c>
+      <c r="AF70">
+        <f t="shared" si="12"/>
+        <v>73.239999999999995</v>
+      </c>
     </row>
-    <row r="71" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="15:32" x14ac:dyDescent="0.3">
       <c r="P71" t="s">
         <v>4</v>
       </c>
       <c r="Q71">
-        <f t="shared" ref="Q71:AE74" si="16">ROUND((Q24+Q51),1)</f>
+        <f t="shared" ref="Q71:AE74" si="22">ROUND((Q24+Q51),1)</f>
         <v>74</v>
       </c>
       <c r="R71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>38.799999999999997</v>
       </c>
       <c r="S71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>33.9</v>
       </c>
       <c r="T71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="U71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>71.400000000000006</v>
       </c>
       <c r="V71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>28.8</v>
       </c>
       <c r="W71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>25.9</v>
       </c>
       <c r="X71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>73.8</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>88.8</v>
       </c>
       <c r="AA71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>15.3</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>55</v>
       </c>
       <c r="AC71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>56.9</v>
       </c>
       <c r="AD71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="AE71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>91.5</v>
       </c>
+      <c r="AF71">
+        <f t="shared" si="12"/>
+        <v>50.74</v>
+      </c>
     </row>
-    <row r="72" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="15:32" x14ac:dyDescent="0.3">
       <c r="P72" t="s">
         <v>5</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>188.2</v>
       </c>
       <c r="R72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>41.4</v>
       </c>
       <c r="S72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>268.5</v>
       </c>
       <c r="T72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>168.5</v>
       </c>
       <c r="U72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>182.6</v>
       </c>
       <c r="V72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>282.89999999999998</v>
       </c>
       <c r="W72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>302.3</v>
       </c>
       <c r="X72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>152.5</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>17.899999999999999</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>190.5</v>
       </c>
       <c r="AA72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>16.5</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>41.4</v>
       </c>
       <c r="AC72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>38.200000000000003</v>
       </c>
       <c r="AD72">
@@ -24052,141 +27148,84 @@
         <v>152.1</v>
       </c>
       <c r="AE72">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>178.6</v>
       </c>
+      <c r="AF72">
+        <f t="shared" si="12"/>
+        <v>148.13999999999999</v>
+      </c>
     </row>
-    <row r="73" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="15:32" x14ac:dyDescent="0.3">
       <c r="P73" t="s">
         <v>6</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>128.5</v>
       </c>
       <c r="R73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>55.1</v>
       </c>
       <c r="S73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>48.5</v>
       </c>
       <c r="T73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
       <c r="U73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>96.4</v>
       </c>
       <c r="V73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>45.6</v>
       </c>
       <c r="W73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>44.8</v>
       </c>
       <c r="X73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>110.5</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>23.5</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>144.80000000000001</v>
       </c>
       <c r="AA73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>22.2</v>
       </c>
       <c r="AB73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>71.599999999999994</v>
       </c>
       <c r="AC73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>83.1</v>
       </c>
       <c r="AD73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>79.8</v>
       </c>
       <c r="AE73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>122.5</v>
       </c>
+      <c r="AF73">
+        <f t="shared" si="12"/>
+        <v>74.989999999999995</v>
+      </c>
     </row>
-    <row r="74" spans="15:31" x14ac:dyDescent="0.25">
-      <c r="P74" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" si="16"/>
-        <v>15.8</v>
-      </c>
-      <c r="R74">
-        <f t="shared" si="16"/>
-        <v>1.2</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="16"/>
-        <v>1.3</v>
-      </c>
-      <c r="T74">
-        <f t="shared" si="16"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U74">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="V74">
-        <f t="shared" si="16"/>
-        <v>1.2</v>
-      </c>
-      <c r="W74">
-        <f t="shared" si="16"/>
-        <v>1.3</v>
-      </c>
-      <c r="X74">
-        <f t="shared" si="16"/>
-        <v>2.1</v>
-      </c>
-      <c r="Y74">
-        <f t="shared" si="16"/>
-        <v>0.2</v>
-      </c>
-      <c r="Z74">
-        <f t="shared" si="16"/>
-        <v>3.9</v>
-      </c>
-      <c r="AA74">
-        <f t="shared" si="16"/>
-        <v>0.2</v>
-      </c>
-      <c r="AB74">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
-      </c>
-      <c r="AC74">
-        <f t="shared" si="16"/>
-        <v>1.2</v>
-      </c>
-      <c r="AD74">
-        <f t="shared" si="16"/>
-        <v>1.4</v>
-      </c>
-      <c r="AE74">
-        <f t="shared" si="16"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="15:32" x14ac:dyDescent="0.3">
       <c r="Q76">
         <v>0</v>
       </c>
@@ -24233,77 +27272,77 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="15:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="15:32" x14ac:dyDescent="0.3">
       <c r="O77" t="s">
         <v>42</v>
       </c>
       <c r="Q77">
         <f>ROUND((Q64+(140.8-Q60))/2,1)</f>
-        <v>34.4</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="R77">
-        <f t="shared" ref="R77:AE77" si="17">ROUND((R64+(140.8-R60))/2,1)</f>
-        <v>79.5</v>
+        <f>ROUND((R64+(140.8-R60))/2,1)</f>
+        <v>82.6</v>
       </c>
       <c r="S77">
-        <f t="shared" si="17"/>
-        <v>51.4</v>
+        <f t="shared" ref="S77:AE77" si="23">ROUND((S64+(140.8-S60))/2,1)</f>
+        <v>56.2</v>
       </c>
       <c r="T77">
-        <f t="shared" si="17"/>
-        <v>65.599999999999994</v>
+        <f t="shared" si="23"/>
+        <v>69.3</v>
       </c>
       <c r="U77">
-        <f t="shared" si="17"/>
-        <v>49.7</v>
+        <f t="shared" si="23"/>
+        <v>53.5</v>
       </c>
       <c r="V77">
-        <f t="shared" si="17"/>
-        <v>49.5</v>
+        <f t="shared" si="23"/>
+        <v>55.5</v>
       </c>
       <c r="W77">
-        <f t="shared" si="17"/>
-        <v>45.4</v>
+        <f t="shared" si="23"/>
+        <v>53.5</v>
       </c>
       <c r="X77">
-        <f t="shared" si="17"/>
-        <v>41.5</v>
+        <f t="shared" si="23"/>
+        <v>44.3</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="17"/>
-        <v>94.9</v>
+        <f t="shared" si="23"/>
+        <v>98.7</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="17"/>
-        <v>33.4</v>
+        <f t="shared" si="23"/>
+        <v>37.299999999999997</v>
       </c>
       <c r="AA77">
-        <f t="shared" si="17"/>
-        <v>95</v>
+        <f t="shared" si="23"/>
+        <v>99.3</v>
       </c>
       <c r="AB77">
-        <f t="shared" si="17"/>
-        <v>75.099999999999994</v>
+        <f t="shared" si="23"/>
+        <v>79.599999999999994</v>
       </c>
       <c r="AC77">
-        <f t="shared" si="17"/>
-        <v>74</v>
+        <f t="shared" si="23"/>
+        <v>78</v>
       </c>
       <c r="AD77">
-        <f t="shared" si="17"/>
-        <v>60.9</v>
+        <f t="shared" si="23"/>
+        <v>64.900000000000006</v>
       </c>
       <c r="AE77">
-        <f t="shared" si="17"/>
-        <v>42.1</v>
+        <f t="shared" si="23"/>
+        <v>46.4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>1</v>
       </c>
@@ -24323,9 +27362,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B89">
         <v>3.98</v>
@@ -24346,9 +27385,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B90">
         <v>3.06</v>
@@ -24369,9 +27408,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B91">
         <v>2.65</v>
@@ -24392,9 +27431,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B92">
         <v>4.4800000000000004</v>
@@ -24415,31 +27454,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93">
+        <f>ROUND((B89+B90+B91+B92)/4,2)</f>
+        <v>3.54</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:F93" si="24">ROUND((C89+C90+C91+C92)/4,2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="24"/>
+        <v>3.73</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="24"/>
+        <v>3.74</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="24"/>
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F107" s="1"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="F113" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>1</v>
       </c>
@@ -24456,7 +27520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>16.899999999999999</v>
       </c>
@@ -24484,19 +27548,19 @@
         <v>6</v>
       </c>
       <c r="J127">
-        <f t="shared" ref="J127:M127" si="18">ROUND((C127+C128+C129+C130)/4,1)</f>
+        <f t="shared" ref="J127:M127" si="25">ROUND((C127+C128+C129+C130)/4,1)</f>
         <v>0.3</v>
       </c>
       <c r="K127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="L127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>17.8</v>
       </c>
       <c r="P127">
@@ -24504,22 +27568,22 @@
         <v>3.7</v>
       </c>
       <c r="Q127">
-        <f t="shared" ref="Q127:T127" si="19">ROUND((22.2/J127),1)</f>
+        <f t="shared" ref="Q127:T127" si="26">ROUND((22.2/J127),1)</f>
         <v>74</v>
       </c>
       <c r="R127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>20.2</v>
       </c>
       <c r="S127">
         <v>0</v>
       </c>
       <c r="T127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>10.4</v>
       </c>
@@ -24539,7 +27603,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>45.7</v>
       </c>
@@ -24559,7 +27623,7 @@
         <v>15.62</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>15.9</v>
       </c>
@@ -24579,7 +27643,7 @@
         <v>21.22</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>1</v>
       </c>
@@ -24596,7 +27660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>16.899999999999999</v>
       </c>
@@ -24620,23 +27684,23 @@
         <v>22.2</v>
       </c>
       <c r="I135">
-        <f t="shared" ref="I135:M135" si="20">ROUND((B135+B136+B137+B138)/4,1)</f>
+        <f t="shared" ref="I135:M135" si="27">ROUND((B135+B136+B137+B138)/4,1)</f>
         <v>4.9000000000000004</v>
       </c>
       <c r="J135">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0.2</v>
       </c>
       <c r="K135">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0.8</v>
       </c>
       <c r="L135">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M135">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0.8</v>
       </c>
       <c r="P135">
@@ -24644,22 +27708,22 @@
         <v>4.5</v>
       </c>
       <c r="Q135">
-        <f t="shared" ref="Q135:T135" si="21">ROUND(22.2/J135,1)</f>
+        <f t="shared" ref="Q135:T135" si="28">ROUND(22.2/J135,1)</f>
         <v>111</v>
       </c>
       <c r="R135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>27.8</v>
       </c>
       <c r="S135">
         <v>0</v>
       </c>
       <c r="T135">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>27.8</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>10.4</v>
       </c>
@@ -24679,7 +27743,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>45.7</v>
       </c>
@@ -24699,7 +27763,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>15.9</v>
       </c>
@@ -24717,6 +27781,26 @@
       </c>
       <c r="F138">
         <v>0.95</v>
+      </c>
+      <c r="P138">
+        <f>(P127+P135)/2</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" ref="Q138:T138" si="29">(Q127+Q135)/2</f>
+        <v>92.5</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="29"/>
+        <v>24</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="29"/>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/research/compiled_data/Livro1.xlsx
+++ b/research/compiled_data/Livro1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Silva\Desktop\TP2_git\TI-TP2\research\compiled_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Silva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5737169-85E7-40DD-A961-01A72788A979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96212BDB-2DAA-43F8-83FE-97C5AFB833E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="233" xr2:uid="{A8E8026A-0827-4328-8DB2-6CB64CB9D15B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>jpeg</t>
   </si>
@@ -351,10 +351,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -401,8 +400,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -484,10 +486,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -534,8 +535,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -617,10 +621,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -667,8 +670,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -750,10 +756,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -800,8 +805,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -883,10 +891,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -933,8 +940,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5154,10 +5164,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5204,8 +5213,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5287,10 +5299,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5337,8 +5348,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5420,10 +5434,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5470,8 +5483,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5553,10 +5569,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5603,8 +5618,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5686,10 +5704,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5736,8 +5753,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6101,10 +6121,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6151,8 +6170,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6234,10 +6256,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6284,8 +6305,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6367,10 +6391,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6417,8 +6440,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6508,10 +6534,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6558,8 +6583,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6641,10 +6669,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6691,8 +6718,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7070,10 +7100,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7120,8 +7149,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7203,10 +7235,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7253,8 +7284,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7336,10 +7370,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7386,8 +7419,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7469,10 +7505,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7519,8 +7554,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7602,10 +7640,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7652,8 +7689,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -9104,10 +9144,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -9154,8 +9193,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -9237,10 +9279,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -9287,8 +9328,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -9370,10 +9414,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -9420,8 +9463,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -9503,10 +9549,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -9553,8 +9598,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -9636,10 +9684,9 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Folha1!$Q$32:$AF$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -9686,8 +9733,11 @@
                 <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="15">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -21948,8 +21998,8 @@
       <xdr:row>110</xdr:row>
       <xdr:rowOff>20646</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CaixaDeTexto 1">
@@ -22091,7 +22141,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="CaixaDeTexto 1">
@@ -23025,8 +23075,8 @@
       <cdr:x>0.24227</cdr:x>
       <cdr:y>0.67863</cdr:y>
     </cdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -23104,7 +23154,7 @@
           </cdr:txBody>
         </cdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <cdr:sp macro="" textlink="">
           <cdr:nvSpPr>
             <cdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -23705,8 +23755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8244EF-F26E-4B6C-9356-A1D409A957BC}">
   <dimension ref="A1:AS138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59:AE59"/>
+    <sheetView tabSelected="1" topLeftCell="X86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF50" sqref="AF50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24654,7 +24704,7 @@
         <v>45.14</v>
       </c>
       <c r="R23">
-        <f t="shared" ref="R23:AD27" si="11">ROUND(A23,2)</f>
+        <f t="shared" ref="R23:AD26" si="11">ROUND(A23,2)</f>
         <v>22.09</v>
       </c>
       <c r="S23">
@@ -25124,6 +25174,9 @@
       <c r="AE32">
         <v>14</v>
       </c>
+      <c r="AF32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33">
@@ -25225,7 +25278,7 @@
         <v>3</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:AE38" si="13">ROUND(A34/1024/1024,2)</f>
+        <f t="shared" ref="Q34:AE37" si="13">ROUND(A34/1024/1024,2)</f>
         <v>6.86</v>
       </c>
       <c r="R34">
@@ -25823,7 +25876,7 @@
         <v>67.55</v>
       </c>
       <c r="S42">
-        <f t="shared" ref="S42:AD46" si="14">ROUND(B42,2)</f>
+        <f t="shared" ref="S42:AD45" si="14">ROUND(B42,2)</f>
         <v>69.05</v>
       </c>
       <c r="T42">
@@ -25925,7 +25978,7 @@
         <v>55.9</v>
       </c>
       <c r="R43">
-        <f t="shared" ref="R43:R46" si="15">ROUND(A43,2)</f>
+        <f t="shared" ref="R43:R45" si="15">ROUND(A43,2)</f>
         <v>63.4</v>
       </c>
       <c r="S43">
@@ -26703,7 +26756,7 @@
         <v>47.2</v>
       </c>
       <c r="S60">
-        <f t="shared" ref="R60:AE60" si="18">ROUND((S70+S71+S72+S73)/4,1)</f>
+        <f t="shared" ref="S60:AE60" si="18">ROUND((S70+S71+S72+S73)/4,1)</f>
         <v>102.2</v>
       </c>
       <c r="T60">
@@ -27023,7 +27076,7 @@
         <v>4</v>
       </c>
       <c r="Q71">
-        <f t="shared" ref="Q71:AE74" si="22">ROUND((Q24+Q51),1)</f>
+        <f t="shared" ref="Q71:AE73" si="22">ROUND((Q24+Q51),1)</f>
         <v>74</v>
       </c>
       <c r="R71">

--- a/research/compiled_data/Livro1.xlsx
+++ b/research/compiled_data/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Silva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96212BDB-2DAA-43F8-83FE-97C5AFB833E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED70F5-BE41-44F1-907B-D11B74097E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="233" xr2:uid="{A8E8026A-0827-4328-8DB2-6CB64CB9D15B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="48">
   <si>
     <t>jpeg</t>
   </si>
@@ -176,6 +176,9 @@
   <si>
     <t>MEDIA</t>
   </si>
+  <si>
+    <t>cmp 10</t>
+  </si>
 </sst>
 </file>
 
@@ -217,10 +220,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5022,6 +5031,519 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Comparação do Cmp ger.10</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>com</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> outros algoritmos</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Média da Taxa de Compressão</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Jpeg2000 Parte 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Jpeg</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Bzip2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Png</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Cmp10</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$200:$E$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-757D-44EF-9527-5F906AE74FD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Média do Tempo Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Jpeg2000 Parte 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Jpeg</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Bzip2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Png</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Cmp10</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$A$201:$E$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-757D-44EF-9527-5F906AE74FD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1260406696"/>
+        <c:axId val="1260407024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1260406696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1260407024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1260407024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1260406696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -12916,6 +13438,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16852,6 +17414,530 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -23061,6 +24147,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>21770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE606943-5B6D-4125-966A-862378B307B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23753,10 +24875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8244EF-F26E-4B6C-9356-A1D409A957BC}">
-  <dimension ref="A1:AS138"/>
+  <dimension ref="A1:AS201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF50" sqref="AF50"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24073,11 +25195,11 @@
         <v>5.2012999999999998</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:O7" si="2">ROUND((L3+L4+L5+L6)/4,4)</f>
+        <f>ROUND((L3+L4+L5+L6)/4,4)</f>
         <v>2.3289</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M7:O7" si="2">ROUND((M3+M4+M5+M6)/4,4)</f>
         <v>1.9454</v>
       </c>
       <c r="N7">
@@ -25927,7 +27049,7 @@
         <v>76.510000000000005</v>
       </c>
       <c r="AF42">
-        <f t="shared" si="12"/>
+        <f>ROUND((Q42+R42+S42+T42+U42+V42+W42+X42+Y42+Z42+AA42+AB42+AC42+AD42+AE42)/15,2)</f>
         <v>69.650000000000006</v>
       </c>
     </row>
@@ -26392,7 +27514,7 @@
         <v>75.069999999999993</v>
       </c>
       <c r="AF50">
-        <f t="shared" si="12"/>
+        <f>ROUND((Q50+R50+S50+T50+U50+V50+W50+X50+Y50+Z50+AA50+AB50+AC50+AD50+AE50)/15,2)</f>
         <v>44.34</v>
       </c>
     </row>
@@ -27856,7 +28978,647 @@
         <v>14.5</v>
       </c>
     </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="B159">
+        <v>3.98</v>
+      </c>
+      <c r="C159">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D159">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E159">
+        <v>4.41</v>
+      </c>
+      <c r="F159" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="G159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>10.4</v>
+      </c>
+      <c r="B160">
+        <v>3.06</v>
+      </c>
+      <c r="C160">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D160">
+        <v>3.33</v>
+      </c>
+      <c r="E160">
+        <v>3.17</v>
+      </c>
+      <c r="F160" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="G160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>45.7</v>
+      </c>
+      <c r="B161">
+        <v>2.65</v>
+      </c>
+      <c r="C161">
+        <v>1.06</v>
+      </c>
+      <c r="D161">
+        <v>1.72</v>
+      </c>
+      <c r="E161">
+        <v>2.17</v>
+      </c>
+      <c r="F161" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="G161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>15.9</v>
+      </c>
+      <c r="B162">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="C162">
+        <v>0.98</v>
+      </c>
+      <c r="D162">
+        <v>5.36</v>
+      </c>
+      <c r="E162">
+        <v>5.21</v>
+      </c>
+      <c r="F162" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="G162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>3</v>
+      </c>
+      <c r="B169">
+        <v>76.45</v>
+      </c>
+      <c r="C169">
+        <v>94.43</v>
+      </c>
+      <c r="D169">
+        <v>73.25</v>
+      </c>
+      <c r="E169">
+        <v>73.91</v>
+      </c>
+      <c r="F169" s="1">
+        <v>72.87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <v>70.58</v>
+      </c>
+      <c r="C170">
+        <v>96.9</v>
+      </c>
+      <c r="D170">
+        <v>67.98</v>
+      </c>
+      <c r="E170">
+        <v>69.52</v>
+      </c>
+      <c r="F170" s="1">
+        <v>72.650000000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171">
+        <v>94.2</v>
+      </c>
+      <c r="C171">
+        <v>97.68</v>
+      </c>
+      <c r="D171">
+        <v>96.24</v>
+      </c>
+      <c r="E171">
+        <v>95.25</v>
+      </c>
+      <c r="F171" s="1">
+        <v>94.67</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172">
+        <v>71.819999999999993</v>
+      </c>
+      <c r="C172">
+        <v>93.84</v>
+      </c>
+      <c r="D172">
+        <v>66.290000000000006</v>
+      </c>
+      <c r="E172">
+        <v>67.23</v>
+      </c>
+      <c r="F172" s="1">
+        <v>65.209999999999994</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>44</v>
+      </c>
+      <c r="B173">
+        <f>ROUND((B169+B170+B171+B172)/4,2)</f>
+        <v>78.260000000000005</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ref="C173:E173" si="30">ROUND((C169+C170+C171+C172)/4,2)</f>
+        <v>95.71</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="30"/>
+        <v>75.94</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="30"/>
+        <v>76.48</v>
+      </c>
+      <c r="F173" s="2">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C177">
+        <v>0.25</v>
+      </c>
+      <c r="D177">
+        <v>1.38</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>3.54</v>
+      </c>
+      <c r="C178">
+        <v>0.15</v>
+      </c>
+      <c r="D178">
+        <v>0.97</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178" s="1">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179">
+        <v>9.92</v>
+      </c>
+      <c r="C179">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D179">
+        <v>0.89</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180">
+        <v>5.42</v>
+      </c>
+      <c r="C180">
+        <v>0.25</v>
+      </c>
+      <c r="D180">
+        <v>1.21</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>44</v>
+      </c>
+      <c r="B181">
+        <v>5.97</v>
+      </c>
+      <c r="C181">
+        <v>0.31</v>
+      </c>
+      <c r="D181">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181" s="2">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <v>4.03</v>
+      </c>
+      <c r="C185">
+        <v>0.19</v>
+      </c>
+      <c r="D185">
+        <v>0.89</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>2.83</v>
+      </c>
+      <c r="C186">
+        <v>0.12</v>
+      </c>
+      <c r="D186">
+        <v>0.61</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187">
+        <v>8.59</v>
+      </c>
+      <c r="C187">
+        <v>0.42</v>
+      </c>
+      <c r="D187">
+        <v>0.68</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188">
+        <v>4.33</v>
+      </c>
+      <c r="C188">
+        <v>0.19</v>
+      </c>
+      <c r="D188">
+        <v>0.86</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>46</v>
+      </c>
+      <c r="B189">
+        <v>4.95</v>
+      </c>
+      <c r="C189">
+        <v>0.23</v>
+      </c>
+      <c r="D189">
+        <v>0.76</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="C193" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="D193" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="E193" s="1">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B194" s="1">
+        <v>6.37</v>
+      </c>
+      <c r="C194" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="E194" s="1">
+        <v>0</v>
+      </c>
+      <c r="F194" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="1">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="C196" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="D196" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B197" s="1">
+        <v>10.91</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="E197" s="1">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1">
+        <f>ROUND((F193+F194+F195+F196)/4,2)</f>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>78.260000000000005</v>
+      </c>
+      <c r="B200" s="1">
+        <v>95.71</v>
+      </c>
+      <c r="C200" s="1">
+        <v>75.94</v>
+      </c>
+      <c r="D200" s="1">
+        <v>76.48</v>
+      </c>
+      <c r="E200" s="1">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>10.91</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0</v>
+      </c>
+      <c r="E201" s="1">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A191:B191"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/research/compiled_data/Livro1.xlsx
+++ b/research/compiled_data/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Silva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED70F5-BE41-44F1-907B-D11B74097E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EE1A21-61F5-497C-930F-BE6C7C150505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="233" xr2:uid="{A8E8026A-0827-4328-8DB2-6CB64CB9D15B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="54">
   <si>
     <t>jpeg</t>
   </si>
@@ -178,6 +178,24 @@
   </si>
   <si>
     <t>cmp 10</t>
+  </si>
+  <si>
+    <t>JPEG2000</t>
+  </si>
+  <si>
+    <t>JPEG</t>
+  </si>
+  <si>
+    <t>BZIP2</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>CMP10</t>
   </si>
 </sst>
 </file>
@@ -1388,23 +1406,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1522,23 +1540,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1656,23 +1674,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1790,23 +1808,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1922,6 +1940,29 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Folha1!$S$17:$W$17</c:f>
@@ -2297,23 +2338,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2431,23 +2472,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2565,23 +2606,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2699,23 +2740,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2831,6 +2872,29 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Folha1!$S$8:$W$8</c:f>
@@ -3206,23 +3270,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3340,23 +3404,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3474,23 +3538,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3608,23 +3672,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Folha1!$AO$8:$AS$8</c:f>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Jpeg2000 Parte 1</c:v>
+                  <c:v>JPEG2000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Jpeg</c:v>
+                  <c:v>JPEG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bzip2</c:v>
+                  <c:v>BZIP2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Png</c:v>
+                  <c:v>PNG</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Cmp</c:v>
+                  <c:v>CMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3732,6 +3796,29 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Folha1!$B$18:$F$18</c:f>
@@ -4112,24 +4199,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp ger. 10</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$J$146:$N$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4491,24 +4581,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp ger. 10</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$J$146:$N$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4860,24 +4953,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp ger. 10</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$J$146:$N$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5225,24 +5321,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp10</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$J$146:$N$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5348,24 +5447,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp10</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$J$146:$N$146</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -10694,24 +10796,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -10817,24 +10922,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -10940,24 +11048,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -11063,24 +11174,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -11193,6 +11307,29 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Folha1!$B$93:$F$93</c:f>
@@ -12452,24 +12589,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -12575,24 +12715,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -12698,24 +12841,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -12821,24 +12967,27 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>Jpeg2000 Parte 1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Jpeg</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>Bzip2</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>Png</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>Cmp</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -12951,6 +13100,29 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$M$81:$Q$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>JPEG2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>JPEG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BZIP2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PNG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Folha1!$J$17:$N$17</c:f>
@@ -24877,8 +25049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8244EF-F26E-4B6C-9356-A1D409A957BC}">
   <dimension ref="A1:AS201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+    <sheetView tabSelected="1" topLeftCell="Z77" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI147" sqref="AI147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28512,12 +28684,29 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M81" t="s">
+        <v>48</v>
+      </c>
+      <c r="N81" t="s">
+        <v>49</v>
+      </c>
+      <c r="O81" t="s">
+        <v>50</v>
+      </c>
+      <c r="P81" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>1</v>
       </c>
@@ -28537,7 +28726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -28560,7 +28749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>34</v>
       </c>
@@ -28583,7 +28772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -28606,7 +28795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -28629,7 +28818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -28978,7 +29167,24 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J146" t="s">
+        <v>48</v>
+      </c>
+      <c r="K146" t="s">
+        <v>49</v>
+      </c>
+      <c r="L146" t="s">
+        <v>50</v>
+      </c>
+      <c r="M146" t="s">
+        <v>51</v>
+      </c>
+      <c r="N146" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>1</v>
       </c>
@@ -28995,7 +29201,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>16.899999999999999</v>
       </c>
@@ -29018,7 +29224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>10.4</v>
       </c>

--- a/research/compiled_data/Livro1.xlsx
+++ b/research/compiled_data/Livro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Silva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EE1A21-61F5-497C-930F-BE6C7C150505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C0AFB5-9040-48C0-AD49-D0A6D98E2240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="233" xr2:uid="{A8E8026A-0827-4328-8DB2-6CB64CB9D15B}"/>
   </bookViews>
@@ -25049,7 +25049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8244EF-F26E-4B6C-9356-A1D409A957BC}">
   <dimension ref="A1:AS201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z77" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F77" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AI147" sqref="AI147"/>
     </sheetView>
   </sheetViews>
